--- a/report/ML Models Evaluation.xlsx
+++ b/report/ML Models Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftup-my.sharepoint.com/personal/sd10725_stellantis_com/Documents/Documentos/DATA ANALYTICS/DATA ACADEMY/GITHUB/apr24cds_road_accidents/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="8_{B6A7D9C8-3341-4D69-930A-C8C0F2433F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EF306F0-8AC6-4D38-B2B1-93F5E4DDBE4A}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="8_{B6A7D9C8-3341-4D69-930A-C8C0F2433F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085B3155-A4F5-40A0-A052-9F8C66144454}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="41070" yWindow="-585" windowWidth="16995" windowHeight="12825" xr2:uid="{43DDD0AB-FE31-48FE-9C4A-C88947659BAB}"/>
+    <workbookView xWindow="40605" yWindow="-585" windowWidth="16995" windowHeight="12825" xr2:uid="{43DDD0AB-FE31-48FE-9C4A-C88947659BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
   <si>
     <t>gravity</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Decision Tree</t>
   </si>
   <si>
-    <t>LightGBM</t>
-  </si>
-  <si>
     <t>0.74</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
   </si>
   <si>
     <t>0.11</t>
-  </si>
-  <si>
-    <t>CatBoost</t>
   </si>
 </sst>
 </file>
@@ -441,6 +435,12 @@
     <xf numFmtId="43" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,12 +454,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -811,7 +805,7 @@
   <dimension ref="B2:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -824,33 +818,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="J2" s="20" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="20"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
@@ -863,7 +857,7 @@
       <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="20"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="10" t="s">
         <v>46</v>
       </c>
@@ -1060,15 +1054,15 @@
       <c r="P8" s="6"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
       <c r="I9" s="7" t="s">
         <v>49</v>
       </c>
@@ -1081,7 +1075,7 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="15"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1121,16 +1115,6 @@
       <c r="F11" s="2">
         <v>37371</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="3">
@@ -1148,16 +1132,6 @@
       <c r="F12" s="2">
         <v>2335</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="3">
@@ -1228,18 +1202,18 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="15"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
@@ -1356,18 +1330,18 @@
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="15"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="10" t="s">
         <v>4</v>
       </c>
@@ -1386,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>50</v>
@@ -1403,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>51</v>
@@ -1423,7 +1397,7 @@
         <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>52</v>
@@ -1474,10 +1448,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F34" s="3">
         <v>2335</v>
@@ -1485,18 +1459,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:F27"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/ML Models Evaluation.xlsx
+++ b/report/ML Models Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftup-my.sharepoint.com/personal/sd10725_stellantis_com/Documents/Documentos/DATA ANALYTICS/DATA ACADEMY/GITHUB/apr24cds_road_accidents/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="8_{B6A7D9C8-3341-4D69-930A-C8C0F2433F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085B3155-A4F5-40A0-A052-9F8C66144454}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="8_{B6A7D9C8-3341-4D69-930A-C8C0F2433F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8BDB8D1-C6C4-4102-AD90-BE446E3D6679}"/>
   <bookViews>
-    <workbookView xWindow="40605" yWindow="-585" windowWidth="16995" windowHeight="12825" xr2:uid="{43DDD0AB-FE31-48FE-9C4A-C88947659BAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43DDD0AB-FE31-48FE-9C4A-C88947659BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>gravity</t>
   </si>
@@ -65,48 +65,18 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
     <t>0.69</t>
   </si>
   <si>
     <t>0.47</t>
   </si>
   <si>
-    <t>0.27</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
     <t>0.56</t>
   </si>
   <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
     <t>0.73</t>
   </si>
   <si>
@@ -194,9 +164,6 @@
     <t>0.08</t>
   </si>
   <si>
-    <t>0.49</t>
-  </si>
-  <si>
     <t>0.14</t>
   </si>
   <si>
@@ -206,25 +173,7 @@
     <t>0.52</t>
   </si>
   <si>
-    <t>Gradient Booster</t>
-  </si>
-  <si>
     <t>Decision Tree</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.11</t>
   </si>
 </sst>
 </file>
@@ -271,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,12 +245,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2CCDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -394,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,47 +357,38 @@
     <xf numFmtId="43" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -802,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71172AF-12FE-43AF-B1A3-2E708AC8F3B9}">
-  <dimension ref="B2:P34"/>
+  <dimension ref="B2:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -818,232 +752,190 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="16" t="s">
+      <c r="J2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="J2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="11"/>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15" t="s">
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="17"/>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2">
-        <v>37371</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
-        <v>2335</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>37371</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>13737</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>2335</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2">
+        <v>13737</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
         <v>36091</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
       <c r="I8" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
@@ -1054,423 +946,204 @@
       <c r="P8" s="6"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3">
+        <v>87199</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="I9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="17"/>
-      <c r="C10" s="10" t="s">
+      <c r="C12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="11"/>
+      <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2">
-        <v>37371</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2">
-        <v>13737</v>
       </c>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>37371</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13737</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2">
+        <v>36091</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2">
-        <v>36091</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="D18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="3">
         <v>87199</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="3">
+    <row r="19" spans="2:6">
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3">
         <v>2335</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="17"/>
-      <c r="C19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="2">
-        <v>37371</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="2">
-        <v>13737</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="3">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="2">
-        <v>36091</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="3">
-        <v>87199</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="17"/>
-      <c r="C28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="2">
-        <v>37371</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="3">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="3">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="2">
-        <v>13737</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="3">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="2">
-        <v>36091</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="3">
-        <v>87199</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2335</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:F27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:P9">
+    <sortCondition ref="I4:I9"/>
+  </sortState>
+  <mergeCells count="8">
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/ML Models Evaluation.xlsx
+++ b/report/ML Models Evaluation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftup-my.sharepoint.com/personal/sd10725_stellantis_com/Documents/Documentos/DATA ANALYTICS/DATA ACADEMY/GITHUB/apr24cds_road_accidents/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="8_{B6A7D9C8-3341-4D69-930A-C8C0F2433F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8BDB8D1-C6C4-4102-AD90-BE446E3D6679}"/>
+  <xr:revisionPtr revIDLastSave="427" documentId="8_{B6A7D9C8-3341-4D69-930A-C8C0F2433F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D518189-63C1-4E99-A704-6E10C1FE1D07}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43DDD0AB-FE31-48FE-9C4A-C88947659BAB}"/>
+    <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="15720" xr2:uid="{43DDD0AB-FE31-48FE-9C4A-C88947659BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="41">
   <si>
     <t>gravity</t>
   </si>
   <si>
-    <t>Logisctic Regression</t>
-  </si>
-  <si>
     <t>Random Forest</t>
   </si>
   <si>
@@ -65,60 +63,27 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
     <t>0.56</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
     <t>0.55</t>
   </si>
   <si>
     <t>0.66</t>
   </si>
   <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
     <t>0.67</t>
   </si>
   <si>
     <t>0.79</t>
   </si>
   <si>
-    <t>0.39</t>
-  </si>
-  <si>
     <t>0.68</t>
   </si>
   <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
     <t>Fatal</t>
   </si>
   <si>
@@ -134,15 +99,6 @@
     <t>1.00</t>
   </si>
   <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
     <t xml:space="preserve"> f1-score</t>
   </si>
   <si>
@@ -152,28 +108,58 @@
     <t>weighted</t>
   </si>
   <si>
-    <t>KNN</t>
-  </si>
-  <si>
-    <t>SVM</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>Decision Tree</t>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>Random Forest V1</t>
+  </si>
+  <si>
+    <t>Random Forest V2</t>
+  </si>
+  <si>
+    <t>Shape of X_train: (358136, 230)</t>
+  </si>
+  <si>
+    <t>Shape of X_test: (89534, 230)</t>
+  </si>
+  <si>
+    <t>Pre-processing V1</t>
+  </si>
+  <si>
+    <t>Pre-processing V2</t>
+  </si>
+  <si>
+    <t>Shape of X_train: (358136, 211)</t>
+  </si>
+  <si>
+    <t>Shape of X_test: (89534, 211)</t>
   </si>
 </sst>
 </file>
@@ -183,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +205,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +236,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -332,12 +329,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,9 +425,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,27 +435,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -390,6 +443,62 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -739,309 +848,270 @@
   <dimension ref="B2:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="16" width="9.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="10.140625" style="10" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="11" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="10"/>
+    <col min="9" max="9" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="10" customWidth="1"/>
+    <col min="11" max="16" width="9.28515625" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="J2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="B2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="J2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="20"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="11"/>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="I4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>37371</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="I5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
         <v>2335</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>13737</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2">
         <v>36091</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3">
         <v>87199</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3">
         <v>2335</v>
       </c>
     </row>
+    <row r="11" spans="2:16">
+      <c r="B11"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="20"/>
+      <c r="C13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="11"/>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2">
         <v>37371</v>
       </c>
@@ -1050,15 +1120,9 @@
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2">
         <v>2335</v>
       </c>
@@ -1067,15 +1131,9 @@
       <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2">
         <v>13737</v>
       </c>
@@ -1084,66 +1142,465 @@
       <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2">
         <v>36091</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3">
         <v>87199</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3">
         <v>2335</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:P9">
-    <sortCondition ref="I4:I9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:P5">
+    <sortCondition ref="I4:I5"/>
   </sortState>
   <mergeCells count="8">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6336D8B4-6591-452C-9C28-C8823E7102B0}">
+  <dimension ref="B2:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="10.140625" style="10" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="10"/>
+    <col min="8" max="8" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="10" customWidth="1"/>
+    <col min="10" max="15" width="9.28515625" style="11" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="H2"/>
+      <c r="I2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="20"/>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>37371</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2335</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2">
+        <v>13737</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>36091</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
+        <v>87199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="20"/>
+      <c r="C12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
+        <v>37371</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13737</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
+        <v>36091</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3">
+        <v>87199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/ML Models Evaluation.xlsx
+++ b/report/ML Models Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftup-my.sharepoint.com/personal/sd10725_stellantis_com/Documents/Documentos/DATA ANALYTICS/DATA ACADEMY/GITHUB/apr24cds_road_accidents/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="427" documentId="8_{B6A7D9C8-3341-4D69-930A-C8C0F2433F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D518189-63C1-4E99-A704-6E10C1FE1D07}"/>
+  <xr:revisionPtr revIDLastSave="495" documentId="8_{B6A7D9C8-3341-4D69-930A-C8C0F2433F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1253402-2274-4F29-A7E5-4C776B77317D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="15720" xr2:uid="{43DDD0AB-FE31-48FE-9C4A-C88947659BAB}"/>
+    <workbookView xWindow="28695" yWindow="-1470" windowWidth="14610" windowHeight="15480" xr2:uid="{43DDD0AB-FE31-48FE-9C4A-C88947659BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
   <si>
     <t>gravity</t>
   </si>
@@ -160,6 +160,93 @@
   </si>
   <si>
     <t>Shape of X_test: (89534, 211)</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>4 severities</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>Non-Fatal vs Fatal</t>
   </si>
 </sst>
 </file>
@@ -414,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,43 +549,42 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -848,7 +934,7 @@
   <dimension ref="B2:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -869,21 +955,24 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="18"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="19" t="s">
@@ -895,7 +984,8 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="23"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="8" t="s">
         <v>21</v>
       </c>
@@ -929,29 +1019,29 @@
       <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>34</v>
+      <c r="I4" s="17" t="s">
+        <v>1</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:16">
@@ -959,40 +1049,54 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2">
         <v>37371</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="J5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2">
         <v>2335</v>
@@ -1003,74 +1107,142 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2">
         <v>13737</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="25"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2">
         <v>36091</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F9" s="3">
         <v>87199</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3">
         <v>2335</v>
       </c>
+      <c r="I10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16">
       <c r="B11"/>
@@ -1109,9 +1281,15 @@
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F14" s="2">
         <v>37371</v>
       </c>
@@ -1120,9 +1298,15 @@
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="2">
         <v>2335</v>
       </c>
@@ -1131,9 +1315,15 @@
       <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F16" s="2">
         <v>13737</v>
       </c>
@@ -1142,9 +1332,15 @@
       <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="2">
         <v>36091</v>
       </c>
@@ -1175,15 +1371,21 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:P5">
     <sortCondition ref="I4:I5"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1220,21 +1422,21 @@
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
       <c r="H2"/>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="20"/>
@@ -1250,7 +1452,7 @@
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
@@ -1556,16 +1758,16 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="24" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="12" t="s">
@@ -1591,16 +1793,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:F2"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/ML Models Evaluation.xlsx
+++ b/report/ML Models Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftup-my.sharepoint.com/personal/sd10725_stellantis_com/Documents/Documentos/DATA ANALYTICS/DATA ACADEMY/GITHUB/apr24cds_road_accidents/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="495" documentId="8_{B6A7D9C8-3341-4D69-930A-C8C0F2433F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1253402-2274-4F29-A7E5-4C776B77317D}"/>
+  <xr:revisionPtr revIDLastSave="535" documentId="8_{B6A7D9C8-3341-4D69-930A-C8C0F2433F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5E9B384-8F86-4D04-A8DB-EF843867DB86}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-1470" windowWidth="14610" windowHeight="15480" xr2:uid="{43DDD0AB-FE31-48FE-9C4A-C88947659BAB}"/>
+    <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="15720" xr2:uid="{43DDD0AB-FE31-48FE-9C4A-C88947659BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="75">
   <si>
     <t>gravity</t>
   </si>
@@ -225,9 +225,6 @@
     <t>0.75</t>
   </si>
   <si>
-    <t>0.45</t>
-  </si>
-  <si>
     <t>0.82</t>
   </si>
   <si>
@@ -240,13 +237,31 @@
     <t>0.69</t>
   </si>
   <si>
-    <t>0.52</t>
-  </si>
-  <si>
     <t>0.51</t>
   </si>
   <si>
     <t>Non-Fatal vs Fatal</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.62</t>
   </si>
 </sst>
 </file>
@@ -933,17 +948,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71172AF-12FE-43AF-B1A3-2E708AC8F3B9}">
   <dimension ref="B2:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="10.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="10.140625" style="11" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="10"/>
-    <col min="9" max="9" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" style="10" customWidth="1"/>
     <col min="11" max="16" width="9.28515625" style="11" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="10"/>
@@ -951,10 +966,6 @@
   <sheetData>
     <row r="2" spans="2:16">
       <c r="B2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
       <c r="I2" s="25" t="s">
         <v>57</v>
       </c>
@@ -1064,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>59</v>
@@ -1073,13 +1084,13 @@
         <v>14</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>14</v>
@@ -1120,7 +1131,7 @@
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>7</v>
@@ -1236,13 +1247,27 @@
       <c r="I10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="J10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11"/>
@@ -1285,10 +1310,10 @@
         <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2">
         <v>37371</v>
@@ -1299,13 +1324,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F15" s="2">
         <v>2335</v>
@@ -1316,13 +1341,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2">
         <v>13737</v>
@@ -1333,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2">
         <v>36091</v>
@@ -1349,9 +1374,15 @@
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F18" s="3">
         <v>87199</v>
       </c>
@@ -1360,9 +1391,15 @@
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F19" s="3">
         <v>2335</v>
       </c>
